--- a/todo/static/reports/Comparison_Report.xlsx
+++ b/todo/static/reports/Comparison_Report.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\All Projects\Django\todowoo-project-master\django3-todowoo-project-master\todo\static\reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF42CE48-19A9-426E-951F-D3B8C3953705}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOBACCO" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="140">
   <si>
     <t>SUPPLIER CODE</t>
   </si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>695916</t>
-  </si>
-  <si>
-    <t>942292</t>
   </si>
   <si>
     <t>882746</t>
@@ -442,11 +445,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="$0.00"/>
+    <numFmt numFmtId="164" formatCode="\$0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -522,12 +525,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -574,7 +588,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -606,9 +620,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -640,6 +672,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -815,12 +865,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -839,46 +891,46 @@
     <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
       <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
@@ -907,7 +959,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -915,19 +967,19 @@
         <v>6190010712</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E3" s="1">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G3" s="2">
-        <v>93.59999999999999</v>
+        <v>93.6</v>
       </c>
       <c r="H3" s="2">
         <v>85.64</v>
@@ -948,7 +1000,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -956,19 +1008,19 @@
         <v>6190010713</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E4" s="1">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G4" s="2">
-        <v>93.59999999999999</v>
+        <v>93.6</v>
       </c>
       <c r="H4" s="2">
         <v>85.64</v>
@@ -989,7 +1041,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -997,16 +1049,16 @@
         <v>6190000013</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G5" s="2">
         <v>112.5</v>
@@ -1030,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1038,19 +1090,19 @@
         <v>6190010704</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6" s="1">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G6" s="2">
-        <v>93.59999999999999</v>
+        <v>93.6</v>
       </c>
       <c r="H6" s="2">
         <v>85.64</v>
@@ -1071,7 +1123,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1079,16 +1131,16 @@
         <v>6190012925</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E7" s="1">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G7" s="2">
         <v>104.1</v>
@@ -1097,10 +1149,10 @@
         <v>95.64</v>
       </c>
       <c r="I7" s="2">
-        <v>8.460000000000001</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="J7" s="2">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L7" s="2">
         <v>12</v>
@@ -1112,7 +1164,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1120,16 +1172,16 @@
         <v>6010000010</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E8" s="1">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G8" s="2">
         <v>109.6</v>
@@ -1153,7 +1205,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1161,22 +1213,22 @@
         <v>6010003812</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G9" s="2">
-        <v>88.40000000000001</v>
+        <v>88.4</v>
       </c>
       <c r="H9" s="2">
-        <v>88.34999999999999</v>
+        <v>88.35</v>
       </c>
       <c r="I9" s="2">
         <v>0.05</v>
@@ -1185,7 +1237,7 @@
         <v>0.05</v>
       </c>
       <c r="L9" s="2">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="M9" s="2">
         <v>8.84</v>
@@ -1194,7 +1246,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1202,19 +1254,19 @@
         <v>6190010714</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G10" s="2">
-        <v>93.59999999999999</v>
+        <v>93.6</v>
       </c>
       <c r="H10" s="2">
         <v>85.64</v>
@@ -1235,7 +1287,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -1243,16 +1295,16 @@
         <v>6190012640</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G11" s="2">
         <v>104.1</v>
@@ -1261,10 +1313,10 @@
         <v>95.64</v>
       </c>
       <c r="I11" s="2">
-        <v>8.460000000000001</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="J11" s="2">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L11" s="2">
         <v>9.6</v>
@@ -1276,24 +1328,21 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>6190010115</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E12" s="1">
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G12" s="2">
         <v>112.5</v>
@@ -1317,24 +1366,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1">
         <v>6010000938</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E13" s="1">
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G13" s="2">
         <v>109.6</v>
@@ -1358,30 +1407,30 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1">
         <v>6190011151</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E14" s="1">
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G14" s="2">
         <v>85.3</v>
       </c>
       <c r="H14" s="2">
-        <v>75.29000000000001</v>
+        <v>75.290000000000006</v>
       </c>
       <c r="I14" s="2">
         <v>10.01</v>
@@ -1399,24 +1448,24 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1">
         <v>6190012825</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E15" s="1">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G15" s="2">
         <v>104.1</v>
@@ -1425,10 +1474,10 @@
         <v>95.64</v>
       </c>
       <c r="I15" s="2">
-        <v>8.460000000000001</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="J15" s="2">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L15" s="2">
         <v>12</v>
@@ -1440,27 +1489,27 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1">
         <v>6190010706</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E16" s="1">
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G16" s="2">
-        <v>93.59999999999999</v>
+        <v>93.6</v>
       </c>
       <c r="H16" s="2">
         <v>85.64</v>
@@ -1481,24 +1530,24 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1">
         <v>6190012635</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E17" s="1">
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G17" s="2">
         <v>104.1</v>
@@ -1507,10 +1556,10 @@
         <v>95.64</v>
       </c>
       <c r="I17" s="2">
-        <v>8.460000000000001</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="J17" s="2">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L17" s="2">
         <v>12</v>
@@ -1522,30 +1571,30 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1">
         <v>6190010722</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E18" s="1">
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G18" s="2">
         <v>85.3</v>
       </c>
       <c r="H18" s="2">
-        <v>85.29000000000001</v>
+        <v>85.29</v>
       </c>
       <c r="I18" s="2">
         <v>0.01</v>
@@ -1563,27 +1612,27 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1">
         <v>6190010705</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E19" s="1">
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G19" s="2">
-        <v>93.59999999999999</v>
+        <v>93.6</v>
       </c>
       <c r="H19" s="2">
         <v>85.64</v>
@@ -1604,30 +1653,30 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1">
         <v>6010003518</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E20" s="1">
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G20" s="2">
-        <v>88.40000000000001</v>
+        <v>88.4</v>
       </c>
       <c r="H20" s="2">
-        <v>88.34999999999999</v>
+        <v>88.35</v>
       </c>
       <c r="I20" s="2">
         <v>0.05</v>
@@ -1645,27 +1694,27 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1">
         <v>6190010700</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E21" s="1">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G21" s="2">
-        <v>93.59999999999999</v>
+        <v>93.6</v>
       </c>
       <c r="H21" s="2">
         <v>85.64</v>
@@ -1686,27 +1735,27 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1">
         <v>6190010701</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E22" s="1">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G22" s="2">
-        <v>93.59999999999999</v>
+        <v>93.6</v>
       </c>
       <c r="H22" s="2">
         <v>85.64</v>
@@ -1727,24 +1776,24 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1">
         <v>6190000015</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E23" s="1">
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G23" s="2">
         <v>116.5</v>
@@ -1768,24 +1817,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="1">
         <v>6190000073</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E24" s="1">
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G24" s="2">
         <v>116.5</v>
@@ -1809,24 +1858,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="1">
         <v>6190010385</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E25" s="1">
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G25" s="2">
         <v>116.5</v>
@@ -1850,24 +1899,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="1">
         <v>6190010113</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E26" s="1">
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G26" s="2">
         <v>112.5</v>
@@ -1891,30 +1940,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="1">
         <v>6190011152</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E27" s="1">
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G27" s="2">
         <v>85.3</v>
       </c>
       <c r="H27" s="2">
-        <v>75.29000000000001</v>
+        <v>75.290000000000006</v>
       </c>
       <c r="I27" s="2">
         <v>10.01</v>
@@ -1932,27 +1981,27 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E28" s="1">
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G28" s="2">
-        <v>99.90000000000001</v>
+        <v>99.9</v>
       </c>
       <c r="H28" s="2">
         <v>101.98</v>
@@ -1973,27 +2022,27 @@
         <v>-0.26</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E29" s="1">
         <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G29" s="2">
-        <v>99.90000000000001</v>
+        <v>99.9</v>
       </c>
       <c r="H29" s="2">
         <v>101.98</v>
@@ -2014,27 +2063,27 @@
         <v>-0.26</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E30" s="1">
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G30" s="2">
-        <v>99.90000000000001</v>
+        <v>99.9</v>
       </c>
       <c r="H30" s="2">
         <v>101.98</v>
@@ -2055,24 +2104,24 @@
         <v>-0.26</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E31" s="1">
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G31" s="2">
         <v>92.75</v>
@@ -2096,24 +2145,24 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E32" s="1">
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G32" s="2">
         <v>85.66</v>
@@ -2137,24 +2186,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E33" s="1">
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G33" s="2">
         <v>85.66</v>
@@ -2175,27 +2224,27 @@
         <v>8.57</v>
       </c>
       <c r="N33" s="2">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E34" s="1">
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G34" s="2">
         <v>85.66</v>
@@ -2219,24 +2268,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E35" s="1">
         <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G35" s="2">
         <v>85.66</v>
@@ -2260,33 +2309,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E36" s="1">
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G36" s="2">
-        <v>85.51000000000001</v>
+        <v>85.51</v>
       </c>
       <c r="H36" s="2">
-        <v>85.51000000000001</v>
+        <v>85.51</v>
       </c>
       <c r="I36" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J36" s="2">
         <v>0.05</v>
@@ -2298,36 +2347,36 @@
         <v>10.69</v>
       </c>
       <c r="N36" s="2">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E37" s="1">
         <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G37" s="2">
-        <v>85.51000000000001</v>
+        <v>85.51</v>
       </c>
       <c r="H37" s="2">
-        <v>85.51000000000001</v>
+        <v>85.51</v>
       </c>
       <c r="I37" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J37" s="2">
         <v>0.05</v>
@@ -2339,27 +2388,27 @@
         <v>10.69</v>
       </c>
       <c r="N37" s="2">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E38" s="1">
         <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G38" s="2">
         <v>102.9</v>
@@ -2383,30 +2432,30 @@
         <v>-0.26</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E39" s="1">
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G39" s="2">
-        <v>85.51000000000001</v>
+        <v>85.51</v>
       </c>
       <c r="H39" s="2">
-        <v>85.51000000000001</v>
+        <v>85.51</v>
       </c>
       <c r="I39" s="2">
         <v>0</v>
@@ -2415,33 +2464,33 @@
         <v>0.05</v>
       </c>
       <c r="L39" s="2">
-        <v>8.550000000000001</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="M39" s="2">
-        <v>8.550000000000001</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="N39" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E40" s="1">
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G40" s="2">
         <v>110.9</v>
@@ -2467,14 +2516,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:O1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/todo/static/reports/Comparison_Report.xlsx
+++ b/todo/static/reports/Comparison_Report.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\All Projects\Django\todowoo-project-master\django3-todowoo-project-master\todo\static\reports\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF42CE48-19A9-426E-951F-D3B8C3953705}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="TOBACCO" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="141">
   <si>
     <t>SUPPLIER CODE</t>
   </si>
@@ -92,6 +86,9 @@
   </si>
   <si>
     <t>695916</t>
+  </si>
+  <si>
+    <t>942292</t>
   </si>
   <si>
     <t>882746</t>
@@ -445,11 +442,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="\$0.00"/>
+    <numFmt numFmtId="164" formatCode="$0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -525,23 +522,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -588,7 +574,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -620,27 +606,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -672,24 +640,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -865,14 +815,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -891,46 +839,46 @@
     <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
@@ -959,7 +907,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -967,19 +915,19 @@
         <v>6190010712</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E3" s="1">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G3" s="2">
-        <v>93.6</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="H3" s="2">
         <v>85.64</v>
@@ -1000,7 +948,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1008,19 +956,19 @@
         <v>6190010713</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E4" s="1">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G4" s="2">
-        <v>93.6</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="H4" s="2">
         <v>85.64</v>
@@ -1041,7 +989,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1049,16 +997,16 @@
         <v>6190000013</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G5" s="2">
         <v>112.5</v>
@@ -1082,7 +1030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1090,19 +1038,19 @@
         <v>6190010704</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E6" s="1">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G6" s="2">
-        <v>93.6</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="H6" s="2">
         <v>85.64</v>
@@ -1123,7 +1071,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1131,16 +1079,16 @@
         <v>6190012925</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E7" s="1">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G7" s="2">
         <v>104.1</v>
@@ -1149,10 +1097,10 @@
         <v>95.64</v>
       </c>
       <c r="I7" s="2">
-        <v>8.4600000000000009</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="J7" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L7" s="2">
         <v>12</v>
@@ -1164,7 +1112,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1172,16 +1120,16 @@
         <v>6010000010</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E8" s="1">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G8" s="2">
         <v>109.6</v>
@@ -1205,7 +1153,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1213,22 +1161,22 @@
         <v>6010003812</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G9" s="2">
-        <v>88.4</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="H9" s="2">
-        <v>88.35</v>
+        <v>88.34999999999999</v>
       </c>
       <c r="I9" s="2">
         <v>0.05</v>
@@ -1237,7 +1185,7 @@
         <v>0.05</v>
       </c>
       <c r="L9" s="2">
-        <v>8.8000000000000007</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M9" s="2">
         <v>8.84</v>
@@ -1246,7 +1194,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1254,19 +1202,19 @@
         <v>6190010714</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G10" s="2">
-        <v>93.6</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="H10" s="2">
         <v>85.64</v>
@@ -1287,7 +1235,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -1295,16 +1243,16 @@
         <v>6190012640</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G11" s="2">
         <v>104.1</v>
@@ -1313,10 +1261,10 @@
         <v>95.64</v>
       </c>
       <c r="I11" s="2">
-        <v>8.4600000000000009</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="J11" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L11" s="2">
         <v>9.6</v>
@@ -1328,21 +1276,24 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B12" s="1">
         <v>6190010115</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E12" s="1">
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G12" s="2">
         <v>112.5</v>
@@ -1366,24 +1317,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1">
         <v>6010000938</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E13" s="1">
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G13" s="2">
         <v>109.6</v>
@@ -1407,30 +1358,30 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1">
         <v>6190011151</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E14" s="1">
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G14" s="2">
         <v>85.3</v>
       </c>
       <c r="H14" s="2">
-        <v>75.290000000000006</v>
+        <v>75.29000000000001</v>
       </c>
       <c r="I14" s="2">
         <v>10.01</v>
@@ -1448,24 +1399,24 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1">
         <v>6190012825</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E15" s="1">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G15" s="2">
         <v>104.1</v>
@@ -1474,10 +1425,10 @@
         <v>95.64</v>
       </c>
       <c r="I15" s="2">
-        <v>8.4600000000000009</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="J15" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L15" s="2">
         <v>12</v>
@@ -1489,27 +1440,27 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1">
         <v>6190010706</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E16" s="1">
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G16" s="2">
-        <v>93.6</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="H16" s="2">
         <v>85.64</v>
@@ -1530,24 +1481,24 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1">
         <v>6190012635</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E17" s="1">
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G17" s="2">
         <v>104.1</v>
@@ -1556,10 +1507,10 @@
         <v>95.64</v>
       </c>
       <c r="I17" s="2">
-        <v>8.4600000000000009</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="J17" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L17" s="2">
         <v>12</v>
@@ -1571,30 +1522,30 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1">
         <v>6190010722</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E18" s="1">
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G18" s="2">
         <v>85.3</v>
       </c>
       <c r="H18" s="2">
-        <v>85.29</v>
+        <v>85.29000000000001</v>
       </c>
       <c r="I18" s="2">
         <v>0.01</v>
@@ -1612,27 +1563,27 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1">
         <v>6190010705</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E19" s="1">
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G19" s="2">
-        <v>93.6</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="H19" s="2">
         <v>85.64</v>
@@ -1653,30 +1604,30 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" s="1">
         <v>6010003518</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E20" s="1">
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G20" s="2">
-        <v>88.4</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="H20" s="2">
-        <v>88.35</v>
+        <v>88.34999999999999</v>
       </c>
       <c r="I20" s="2">
         <v>0.05</v>
@@ -1694,27 +1645,27 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="1">
         <v>6190010700</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E21" s="1">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G21" s="2">
-        <v>93.6</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="H21" s="2">
         <v>85.64</v>
@@ -1735,27 +1686,27 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="1">
         <v>6190010701</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E22" s="1">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G22" s="2">
-        <v>93.6</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="H22" s="2">
         <v>85.64</v>
@@ -1776,24 +1727,24 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1">
         <v>6190000015</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E23" s="1">
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G23" s="2">
         <v>116.5</v>
@@ -1817,24 +1768,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="1">
         <v>6190000073</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E24" s="1">
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G24" s="2">
         <v>116.5</v>
@@ -1858,24 +1809,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="1">
         <v>6190010385</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E25" s="1">
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G25" s="2">
         <v>116.5</v>
@@ -1899,24 +1850,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1">
         <v>6190010113</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E26" s="1">
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G26" s="2">
         <v>112.5</v>
@@ -1940,30 +1891,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="1">
         <v>6190011152</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E27" s="1">
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G27" s="2">
         <v>85.3</v>
       </c>
       <c r="H27" s="2">
-        <v>75.290000000000006</v>
+        <v>75.29000000000001</v>
       </c>
       <c r="I27" s="2">
         <v>10.01</v>
@@ -1981,27 +1932,27 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E28" s="1">
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G28" s="2">
-        <v>99.9</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H28" s="2">
         <v>101.98</v>
@@ -2022,27 +1973,27 @@
         <v>-0.26</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E29" s="1">
         <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G29" s="2">
-        <v>99.9</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H29" s="2">
         <v>101.98</v>
@@ -2063,27 +2014,27 @@
         <v>-0.26</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E30" s="1">
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G30" s="2">
-        <v>99.9</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H30" s="2">
         <v>101.98</v>
@@ -2104,24 +2055,24 @@
         <v>-0.26</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E31" s="1">
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G31" s="2">
         <v>92.75</v>
@@ -2145,24 +2096,24 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E32" s="1">
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G32" s="2">
         <v>85.66</v>
@@ -2186,24 +2137,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E33" s="1">
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G33" s="2">
         <v>85.66</v>
@@ -2224,27 +2175,27 @@
         <v>8.57</v>
       </c>
       <c r="N33" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E34" s="1">
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G34" s="2">
         <v>85.66</v>
@@ -2268,24 +2219,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E35" s="1">
         <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G35" s="2">
         <v>85.66</v>
@@ -2309,33 +2260,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="A36" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E36" s="1">
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G36" s="2">
-        <v>85.51</v>
+        <v>85.51000000000001</v>
       </c>
       <c r="H36" s="2">
-        <v>85.51</v>
+        <v>85.51000000000001</v>
       </c>
       <c r="I36" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J36" s="2">
         <v>0.05</v>
@@ -2347,36 +2298,36 @@
         <v>10.69</v>
       </c>
       <c r="N36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E37" s="1">
         <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G37" s="2">
-        <v>85.51</v>
+        <v>85.51000000000001</v>
       </c>
       <c r="H37" s="2">
-        <v>85.51</v>
+        <v>85.51000000000001</v>
       </c>
       <c r="I37" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J37" s="2">
         <v>0.05</v>
@@ -2388,27 +2339,27 @@
         <v>10.69</v>
       </c>
       <c r="N37" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D38" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E38" s="1">
         <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G38" s="2">
         <v>102.9</v>
@@ -2432,30 +2383,30 @@
         <v>-0.26</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E39" s="1">
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G39" s="2">
-        <v>85.51</v>
+        <v>85.51000000000001</v>
       </c>
       <c r="H39" s="2">
-        <v>85.51</v>
+        <v>85.51000000000001</v>
       </c>
       <c r="I39" s="2">
         <v>0</v>
@@ -2464,33 +2415,33 @@
         <v>0.05</v>
       </c>
       <c r="L39" s="2">
-        <v>8.5500000000000007</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="M39" s="2">
-        <v>8.5500000000000007</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="N39" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E40" s="1">
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G40" s="2">
         <v>110.9</v>
@@ -2516,14 +2467,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:O1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
